--- a/Normalizaciòn y diseño base de datos proyecto 2.xlsx
+++ b/Normalizaciòn y diseño base de datos proyecto 2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Entidades</t>
   </si>
@@ -19,15 +19,27 @@
     <t>usuario</t>
   </si>
   <si>
+    <t>recomendaciones</t>
+  </si>
+  <si>
     <t>multimedia</t>
   </si>
   <si>
+    <t>Genero_Contenido</t>
+  </si>
+  <si>
     <t>subscripcion</t>
   </si>
   <si>
+    <t>anuncios</t>
+  </si>
+  <si>
     <t>perfil</t>
   </si>
   <si>
+    <t>favoritos</t>
+  </si>
+  <si>
     <t>Actor</t>
   </si>
   <si>
@@ -61,28 +73,85 @@
     <t>id</t>
   </si>
   <si>
+    <t>estado_vista</t>
+  </si>
+  <si>
+    <t>estado_perfil</t>
+  </si>
+  <si>
+    <t>premio</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>id_premio</t>
+  </si>
+  <si>
+    <t>nombre_completo</t>
+  </si>
+  <si>
+    <t>Multimedia</t>
+  </si>
+  <si>
+    <t>Subscripcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t>Fecha_Estreno</t>
+  </si>
+  <si>
+    <t>Tipo_Contenido</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>fecha_vencimiento</t>
+  </si>
+  <si>
+    <t>Recomendaciones</t>
+  </si>
+  <si>
+    <t>perfil_id</t>
+  </si>
+  <si>
+    <t>contenido_id</t>
+  </si>
+  <si>
+    <t>id_genero</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>id_contenido</t>
+  </si>
+  <si>
+    <t>id_usuario</t>
+  </si>
+  <si>
+    <t>id_anuncio</t>
+  </si>
+  <si>
+    <t>nombre_anunciante</t>
+  </si>
+  <si>
+    <t>actor_contenido</t>
+  </si>
+  <si>
+    <t>director_contenido</t>
+  </si>
+  <si>
+    <t>premios_contenido</t>
+  </si>
+  <si>
     <t>multimedia_id</t>
-  </si>
-  <si>
-    <t>premio</t>
-  </si>
-  <si>
-    <t>categoria</t>
-  </si>
-  <si>
-    <t>Multimedia</t>
-  </si>
-  <si>
-    <t>Fecha_Estreno</t>
-  </si>
-  <si>
-    <t>Tipo_Contenido</t>
-  </si>
-  <si>
-    <t>links</t>
-  </si>
-  <si>
-    <t>nombre_completo</t>
   </si>
 </sst>
 </file>
@@ -137,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -150,13 +219,10 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -374,6 +440,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="16.29"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -384,130 +453,283 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E12" s="4"/>
       <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="S12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="K16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:M12"/>
+  <mergeCells count="16">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Normalizaciòn y diseño base de datos proyecto 2.xlsx
+++ b/Normalizaciòn y diseño base de datos proyecto 2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Entidades</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>links</t>
+  </si>
+  <si>
+    <t>duracion</t>
   </si>
   <si>
     <t>tipo</t>
@@ -567,11 +570,9 @@
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="4"/>
       <c r="K16" s="3" t="s">
         <v>27</v>
       </c>
@@ -595,10 +596,13 @@
       <c r="E17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -608,10 +612,10 @@
         <v>17</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -625,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>6</v>
@@ -633,25 +637,25 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>19</v>
@@ -669,44 +673,44 @@
         <v>31</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>19</v>
@@ -719,11 +723,11 @@
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="M12:O12"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A16:F16"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="H19:I19"/>

--- a/Normalizaciòn y diseño base de datos proyecto 2.xlsx
+++ b/Normalizaciòn y diseño base de datos proyecto 2.xlsx
@@ -11,150 +11,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>Entidades</t>
   </si>
   <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>perfil</t>
+  </si>
+  <si>
+    <t>actor_contenido</t>
+  </si>
+  <si>
+    <t>premios</t>
+  </si>
+  <si>
+    <t>anuncio_contenido</t>
+  </si>
+  <si>
+    <t>premios_contenido</t>
+  </si>
+  <si>
+    <t>anuncios</t>
+  </si>
+  <si>
+    <t>recomendaciones</t>
+  </si>
+  <si>
+    <t>director_contenido</t>
+  </si>
+  <si>
+    <t>seguridad</t>
+  </si>
+  <si>
+    <t>favoritos</t>
+  </si>
+  <si>
+    <t>subscripcion</t>
+  </si>
+  <si>
+    <t>genero_contenido</t>
+  </si>
+  <si>
     <t>usuario</t>
   </si>
   <si>
-    <t>recomendaciones</t>
+    <t>generos</t>
+  </si>
+  <si>
+    <t>historial</t>
   </si>
   <si>
     <t>multimedia</t>
   </si>
   <si>
-    <t>Genero_Contenido</t>
-  </si>
-  <si>
-    <t>subscripcion</t>
-  </si>
-  <si>
-    <t>anuncios</t>
-  </si>
-  <si>
-    <t>perfil</t>
-  </si>
-  <si>
-    <t>favoritos</t>
-  </si>
-  <si>
-    <t>Actor</t>
-  </si>
-  <si>
-    <t>Director</t>
-  </si>
-  <si>
-    <t>Premios</t>
-  </si>
-  <si>
-    <t>Generos</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Perfil</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nombre_completo</t>
+  </si>
+  <si>
+    <t>multimedia_id</t>
+  </si>
+  <si>
+    <t>actor_id</t>
+  </si>
+  <si>
+    <t>id_anuncio</t>
+  </si>
+  <si>
+    <t>id_contenido</t>
+  </si>
+  <si>
+    <t>nombre_anunciante</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>perfil_id</t>
+  </si>
+  <si>
+    <t>contenido_id</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>id_genero</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>fecha_visualizacion</t>
+  </si>
+  <si>
+    <t>capitulo</t>
+  </si>
+  <si>
+    <t>id_perfil</t>
+  </si>
+  <si>
+    <t>fecha_estreno</t>
+  </si>
+  <si>
+    <t>tipo_contenido</t>
+  </si>
+  <si>
+    <t>duracion</t>
+  </si>
+  <si>
+    <t>estado_vista</t>
+  </si>
+  <si>
+    <t>estado_perfil</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>id_premio</t>
+  </si>
+  <si>
+    <t>id_intento</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>fecha_inicio</t>
+  </si>
+  <si>
+    <t>nombre_usuario</t>
   </si>
   <si>
     <t>contraseña</t>
   </si>
   <si>
     <t>correo</t>
-  </si>
-  <si>
-    <t>estado</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>estado_vista</t>
-  </si>
-  <si>
-    <t>estado_perfil</t>
-  </si>
-  <si>
-    <t>premio</t>
-  </si>
-  <si>
-    <t>categoria</t>
-  </si>
-  <si>
-    <t>id_premio</t>
-  </si>
-  <si>
-    <t>nombre_completo</t>
-  </si>
-  <si>
-    <t>Multimedia</t>
-  </si>
-  <si>
-    <t>Subscripcion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          </t>
-  </si>
-  <si>
-    <t>Fecha_Estreno</t>
-  </si>
-  <si>
-    <t>Tipo_Contenido</t>
-  </si>
-  <si>
-    <t>links</t>
-  </si>
-  <si>
-    <t>duracion</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>fecha_vencimiento</t>
-  </si>
-  <si>
-    <t>Recomendaciones</t>
-  </si>
-  <si>
-    <t>perfil_id</t>
-  </si>
-  <si>
-    <t>contenido_id</t>
-  </si>
-  <si>
-    <t>id_genero</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>id_contenido</t>
-  </si>
-  <si>
-    <t>id_usuario</t>
-  </si>
-  <si>
-    <t>id_anuncio</t>
-  </si>
-  <si>
-    <t>nombre_anunciante</t>
-  </si>
-  <si>
-    <t>actor_contenido</t>
-  </si>
-  <si>
-    <t>director_contenido</t>
-  </si>
-  <si>
-    <t>premios_contenido</t>
-  </si>
-  <si>
-    <t>multimedia_id</t>
   </si>
 </sst>
 </file>
@@ -166,15 +169,18 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -192,14 +198,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
+        <fgColor rgb="FF6D9EEB"/>
+        <bgColor rgb="FF6D9EEB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -209,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -222,11 +228,8 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,9 +445,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="16.29"/>
+    <col customWidth="1" min="1" max="1" width="15.13"/>
+    <col customWidth="1" min="2" max="2" width="15.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,260 +484,364 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="5" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>34</v>
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="3" t="s">
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>19</v>
+      <c r="C65" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A49:C49"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
